--- a/serial 2400-03-001000.xlsx
+++ b/serial 2400-03-001000.xlsx
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:AA100"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1669,11 +1669,6 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
           <t>16/11/23</t>
         </is>
       </c>
@@ -1835,11 +1830,6 @@
           <t>21321</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>16/11/23</t>
@@ -1885,11 +1875,6 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>23124</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2002,6 +1987,11 @@
           <t>16/11/23</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>הוחזר</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -2060,6 +2050,11 @@
           <t>הוחזר</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>17/11/23</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -2283,6 +2278,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>15/11/23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>הוחזר</t>
         </is>
       </c>
     </row>
